--- a/防火墙白名单/CIIA/CIIA防火墙白名单.xlsx
+++ b/防火墙白名单/CIIA/CIIA防火墙白名单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="2"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="背景" sheetId="2" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="83">
   <si>
     <t>规范要求具有switch芯片，C2L无；与王步洲沟通后，要求具备防火墙</t>
   </si>
@@ -188,6 +188,12 @@
   <si>
     <t>J90K复用防火墙白名单配置，相比V1.9.1无新增规则
 J90K有RMA功能</t>
+  </si>
+  <si>
+    <t>V2.3</t>
+  </si>
+  <si>
+    <t>C518、C281MCA2复用防火墙白名单配置，相比V1.9.1无新增规则</t>
   </si>
   <si>
     <t>车型</t>
@@ -1383,10 +1389,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="3"/>
@@ -1565,6 +1571,17 @@
         <v>7</v>
       </c>
     </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1577,8 +1594,8 @@
   <sheetPr/>
   <dimension ref="A1:W183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:A58"/>
     </sheetView>
@@ -1600,13 +1617,13 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="45" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -1615,35 +1632,35 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K1" s="7"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:23">
       <c r="A2" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -1662,20 +1679,20 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="2:23">
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -1695,17 +1712,17 @@
     <row r="4" s="3" customFormat="1" spans="2:23">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -1725,17 +1742,17 @@
     <row r="5" s="3" customFormat="1" spans="2:23">
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -1755,17 +1772,17 @@
     <row r="6" s="3" customFormat="1" spans="2:23">
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -1785,17 +1802,17 @@
     <row r="7" s="3" customFormat="1" spans="2:23">
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -1815,17 +1832,17 @@
     <row r="8" s="3" customFormat="1" spans="2:23">
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -1845,17 +1862,17 @@
     <row r="9" s="3" customFormat="1" spans="2:23">
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -1875,17 +1892,17 @@
     <row r="10" s="3" customFormat="1" spans="2:23">
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -1905,17 +1922,17 @@
     <row r="11" s="3" customFormat="1" spans="2:23">
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="6"/>
@@ -1935,17 +1952,17 @@
     <row r="12" s="3" customFormat="1" spans="2:23">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="6"/>
@@ -1965,20 +1982,20 @@
     <row r="13" s="3" customFormat="1" spans="2:23">
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -1997,17 +2014,17 @@
     <row r="14" s="3" customFormat="1" spans="2:23">
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="6"/>
@@ -2029,16 +2046,16 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -2059,13 +2076,13 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="6"/>
@@ -2108,17 +2125,17 @@
     </row>
     <row r="18" s="3" customFormat="1" spans="2:23">
       <c r="B18" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -2141,12 +2158,12 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -2169,12 +2186,12 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -2197,12 +2214,12 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -2225,12 +2242,12 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -2253,12 +2270,12 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -2281,16 +2298,16 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -2311,16 +2328,16 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
@@ -2362,19 +2379,19 @@
     </row>
     <row r="27" s="3" customFormat="1" spans="2:23">
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F27" s="6">
         <v>53</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -2397,14 +2414,14 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F28" s="6">
         <v>53</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
@@ -2448,19 +2465,19 @@
     </row>
     <row r="30" s="3" customFormat="1" spans="2:23">
       <c r="B30" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F30" s="6">
         <v>80</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
@@ -2483,14 +2500,14 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F31" s="6">
         <v>443</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -2513,18 +2530,18 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F32" s="6">
         <v>8863</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
@@ -2545,18 +2562,18 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F33" s="6">
         <v>8873</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K33" s="6" t="str">
         <f>_xlfn.DISPIMG("ID_8D4C9BE2155E458B94944243F75C44C3",1)</f>
@@ -2601,22 +2618,22 @@
     </row>
     <row r="35" s="3" customFormat="1" spans="2:23">
       <c r="B35" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G35" s="6">
         <v>80</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I35" s="10"/>
       <c r="J35" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
@@ -2637,13 +2654,13 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G36" s="6">
         <v>443</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I36" s="10"/>
       <c r="J36" s="6"/>
@@ -2671,11 +2688,11 @@
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K37" s="7" t="str">
         <f>_xlfn.DISPIMG("ID_8B2C7A3F3C1949B7A3867C1CE48191AE",1)</f>
@@ -2704,7 +2721,7 @@
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I38" s="11"/>
       <c r="J38" s="6"/>
@@ -2732,7 +2749,7 @@
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="6"/>
@@ -2760,7 +2777,7 @@
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="6"/>
@@ -2788,7 +2805,7 @@
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I41" s="11"/>
       <c r="J41" s="6"/>
@@ -2811,17 +2828,17 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G42" s="6">
         <v>51002</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
@@ -2842,17 +2859,17 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G43" s="6">
         <v>51001</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
@@ -2893,18 +2910,18 @@
     </row>
     <row r="45" s="3" customFormat="1" spans="2:23">
       <c r="B45" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G45" s="6">
         <v>13402</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -2948,7 +2965,7 @@
     </row>
     <row r="47" s="3" customFormat="1" spans="2:23">
       <c r="B47" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C47" s="2"/>
       <c r="F47" s="6"/>
@@ -2956,7 +2973,7 @@
         <v>5037</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
@@ -2998,19 +3015,19 @@
     </row>
     <row r="49" s="3" customFormat="1" spans="2:23">
       <c r="B49" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
@@ -3032,15 +3049,15 @@
       <c r="B50" s="6"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
@@ -3084,7 +3101,7 @@
     </row>
     <row r="52" s="3" customFormat="1" spans="2:23">
       <c r="B52" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -3094,11 +3111,11 @@
         <v>22</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
@@ -3140,19 +3157,19 @@
     </row>
     <row r="54" s="3" customFormat="1" spans="2:23">
       <c r="B54" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
@@ -3194,23 +3211,23 @@
     </row>
     <row r="56" s="3" customFormat="1" spans="2:23">
       <c r="B56" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6">
         <v>6680</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
@@ -3231,14 +3248,14 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6">
         <v>1933</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="9"/>
@@ -3261,14 +3278,14 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6">
         <v>1111</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I58" s="10"/>
       <c r="J58" s="9"/>
@@ -6327,7 +6344,7 @@
   <sheetData>
     <row r="1" ht="100" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
